--- a/borders_updated.xlsx
+++ b/borders_updated.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>lao, khm</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>lao, khm</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LAO, CHN</t>
+          <t>lao, khm, china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>lao, khm</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>lao, khm</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CHN, CHN</t>
+          <t>china, lao, khm, china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>china, lao, khm</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>lao, khm</t>
         </is>
       </c>
     </row>
